--- a/individual_results/avey/3.xlsx
+++ b/individual_results/avey/3.xlsx
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="C2" t="n">
         <v>0.75</v>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="C3" t="n">
         <v>0.6</v>
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6666666666666665</v>
+        <v>0.4444444444444445</v>
       </c>
       <c r="C4" t="n">
         <v>0.6666666666666665</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.625</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C5" t="n">
         <v>0.625</v>
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6532224315953884</v>
+        <v>0.3607126626860815</v>
       </c>
       <c r="C6" t="n">
         <v>0.7003059879158462</v>
@@ -1043,7 +1043,7 @@
         </is>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -1115,9 +1115,7 @@
           <t>position</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
         <v>3</v>
       </c>
